--- a/biology/Botanique/Juncus_tenageia/Juncus_tenageia.xlsx
+++ b/biology/Botanique/Juncus_tenageia/Juncus_tenageia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonc des vasières, Jonc des marécages, Jonc des marais
 Juncus tenageia, de noms vernaculaires Jonc des vasières, Jonc des marécages ou Jonc des marais est une espèce de plantes annuelle du genre Juncus (joncs), de la famille des Juncaceae. 
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le jonc des vasières est une plante annuelle de 3-30 cm de hauteur, glabre, à souche fibreuse. Les tiges très grêles, dressées, subcylindriques, sont munies de 1 à 3 feuilles courtes, filiformes, à gaine auriculée[1].
-Appareil reproducteur
-L'inflorescence est très lâche, les fleurs brunâtres étant très espacées, solitaires, sessiles, disposées en panicule grêle, à rameaux étalés, presque dichotomes. Il y a six étamines ; les bractées sont très courtes ; sépales et les pétales sont presque égaux, ovales-allongés, aigus, ne dépassant pas les fruits bruns, globuleux. La floraison a lieu de juin à septembre[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jonc des vasières est une plante annuelle de 3-30 cm de hauteur, glabre, à souche fibreuse. Les tiges très grêles, dressées, subcylindriques, sont munies de 1 à 3 feuilles courtes, filiformes, à gaine auriculée.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le jonc des vasières est présent au nord et à l'ouest de l'Asie, en Afrique septentrionale et en Europe centrale et méridionale[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est très lâche, les fleurs brunâtres étant très espacées, solitaires, sessiles, disposées en panicule grêle, à rameaux étalés, presque dichotomes. Il y a six étamines ; les bractées sont très courtes ; sépales et les pétales sont presque égaux, ovales-allongés, aigus, ne dépassant pas les fruits bruns, globuleux. La floraison a lieu de juin à septembre.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce jonc préfère les terrains humides, sablonneux et argileux, généralement acides. On la trouve donc dans les sentiers, les bords d'étangs et de mares, les zones tourbeuses, les mouillères. La plante ne s'élève pas à une altitude importante dans les montagnes[1].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jonc des vasières est présent au nord et à l'ouest de l'Asie, en Afrique septentrionale et en Europe centrale et méridionale.
 </t>
         </is>
       </c>
@@ -605,17 +628,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce jonc préfère les terrains humides, sablonneux et argileux, généralement acides. On la trouve donc dans les sentiers, les bords d'étangs et de mares, les zones tourbeuses, les mouillères. La plante ne s'élève pas à une altitude importante dans les montagnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Juncus_tenageia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juncus_tenageia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Juncus tenageia var. filiformis Gaudin, 1828
 Juncus tenageia var. racemosus Gaudin, 1828
 Juncus tenageia var. strictus Gaudin, 1828
 Juncus nanus Dubois, 1803
 Juncus vaillantii Thuill., 1799
-Tenageia vaillantii (Thuill.) Rchb., 1847[2]</t>
+Tenageia vaillantii (Thuill.) Rchb., 1847</t>
         </is>
       </c>
     </row>
